--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s0_mean_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1869.676445138582</v>
+        <v>176.7950950332234</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4890000820159912</v>
+        <v>0.1500000953674316</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.07209884384937</v>
+        <v>56.79509503322339</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.7126566934917</v>
+        <v>5.42779881720021</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.187002988238969</v>
+        <v>5.42779881720021</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1432.739999999985</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.39</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553444</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.69357170702614</v>
+        <v>24.81299701176103</v>
       </c>
     </row>
     <row r="6">
@@ -917,7 +917,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.752483473055587</v>
+        <v>21.87190877779048</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,7 +987,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>6</v>
@@ -996,20 +996,6 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1068,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>230.6589999999997</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1079,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>109.3520000000008</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="5">
@@ -1090,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>156.0779999999977</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="6">
@@ -1101,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.263</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="7">
@@ -1112,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>63.73599999999978</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -1123,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>230.6589999999997</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="9">
@@ -1134,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>103.2629999999987</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1145,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>109.3520000000001</v>
+        <v>100.8</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>130.6589999999997</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
@@ -1203,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3.262999999998712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1214,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>9.352000000000134</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10.252</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -1283,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>4.659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1305,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>23.928</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1319,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1332,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1357,34 +1343,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
